--- a/MINERIA DE DATOS - BANCOLOMBIA/pesos.xlsx
+++ b/MINERIA DE DATOS - BANCOLOMBIA/pesos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>variable</t>
   </si>
@@ -22,103 +22,115 @@
     <t>peso</t>
   </si>
   <si>
+    <t>cuentas_otros_x_impulsividad</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_saldo_cuenta_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>impulsividad_x_confianza_entre_cuentas_otros</t>
+  </si>
+  <si>
     <t>saldo_cuenta_x_tiempo_empleo_entre_cuentas_otros</t>
   </si>
   <si>
+    <t>cuentas_otros_x_autocontrol</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_autocontrol</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_autocontrol_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_saldo_cuenta</t>
+  </si>
+  <si>
     <t>saldo_cuenta_x_impulsividad_entre_cuentas_otros</t>
   </si>
   <si>
-    <t>cuentas_otros_x_impulsividad</t>
-  </si>
-  <si>
-    <t>impulsividad_x_confianza_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_saldo_cuenta</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_saldo_cuenta_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_autocontrol</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_autocontrol</t>
-  </si>
-  <si>
-    <t>tiempo_empleo_x_autocontrol_entre_cuentas_otros</t>
+    <t>cuentas_otros_x_confianza_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>autocontrol_x_confianza_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_impulsividad_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_autocontrol</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_impulsividad_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_autocontrol</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_autocontrol_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_valor_prestamo_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_confianza</t>
   </si>
   <si>
     <t>valor_prestamo_x_saldo_cuenta_entre_cuentas_otros</t>
   </si>
   <si>
-    <t>autocontrol_x_confianza_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_confianza_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>tiempo_empleo_x_impulsividad_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_impulsividad_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_confianza</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_autocontrol_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>tiempo_empleo_x_autocontrol</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_valor_prestamo_entre_tiempo_empleo</t>
+    <t>cuentas_otros_x_valor_prestamo</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_confianza_entre_tiempo_empleo</t>
   </si>
   <si>
     <t>tiempo_empleo_x_impulsividad</t>
   </si>
   <si>
+    <t>cuentas_otros_x_autocontrol_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_autocontrol_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_confianza_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>autocontrol_x_impulsividad_entre_tiempo_empleo</t>
+  </si>
+  <si>
     <t>saldo_cuenta_x_impulsividad_entre_tiempo_empleo</t>
   </si>
   <si>
-    <t>valor_prestamo_x_autocontrol</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_confianza_entre_tiempo_empleo</t>
+    <t>valor_prestamo_x_impulsividad_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>Valor_prestamo</t>
   </si>
   <si>
     <t>saldo_cuenta_x_tiempo_empleo</t>
   </si>
   <si>
-    <t>cuentas_otros_x_valor_prestamo</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_autocontrol_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>tiempo_empleo_x_confianza_entre_cuentas_otros</t>
+    <t>autocontrol_x_impulsividad</t>
   </si>
   <si>
     <t>Tiempo_empleo</t>
   </si>
   <si>
-    <t>autocontrol_x_impulsividad_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_impulsividad_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_autocontrol_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>Empleado</t>
+    <t>saldo_cuenta_x_impulsividad</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_autocontrol_entre_tiempo_empleo</t>
   </si>
   <si>
     <t>valor_prestamo_x_saldo_cuenta</t>
@@ -127,70 +139,61 @@
     <t>Saldo_cuenta</t>
   </si>
   <si>
+    <t>Cuentas_otros</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_autocontrol_entre_cuentas_otros</t>
+  </si>
+  <si>
     <t>valor_prestamo_x_impulsividad</t>
   </si>
   <si>
-    <t>valor_prestamo_x_autocontrol_entre_tiempo_empleo</t>
+    <t>cuentas_otros_x_confianza</t>
   </si>
   <si>
     <t>tiempo_empleo_x_confianza</t>
   </si>
   <si>
-    <t>cuentas_otros_x_confianza</t>
-  </si>
-  <si>
-    <t>autocontrol_x_impulsividad</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_autocontrol_entre_cuentas_otros</t>
+    <t>valor_prestamo_x_confianza</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_confianza_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>impulsividad_x_confianza_entre_tiempo_empleo</t>
   </si>
   <si>
     <t>valor_prestamo_x_saldo_cuenta_entre_tiempo_empleo</t>
   </si>
   <si>
-    <t>Cuentas_otros</t>
-  </si>
-  <si>
-    <t>Valor_prestamo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_impulsividad</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_confianza_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>impulsividad_x_confianza_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_confianza</t>
-  </si>
-  <si>
     <t>autocontrol_x_confianza_entre_cuentas_otros</t>
   </si>
   <si>
+    <t>impulsividad_x_confianza</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_tiempo_empleo_entre_cuentas_otros</t>
+  </si>
+  <si>
     <t>autocontrol_x_impulsividad_entre_cuentas_otros</t>
   </si>
   <si>
-    <t>valor_prestamo_x_tiempo_empleo_entre_cuentas_otros</t>
-  </si>
-  <si>
     <t>valor_prestamo_x_impulsividad_entre_cuentas_otros</t>
   </si>
   <si>
-    <t>impulsividad_x_confianza</t>
+    <t>Impulsividad</t>
+  </si>
+  <si>
+    <t>autocontrol_x_confianza</t>
   </si>
   <si>
     <t>valor_prestamo_x_confianza_entre_cuentas_otros</t>
   </si>
   <si>
-    <t>autocontrol_x_confianza</t>
-  </si>
-  <si>
     <t>saldo_cuenta_x_confianza_entre_tiempo_empleo</t>
   </si>
   <si>
-    <t>Impulsividad</t>
+    <t>Saldo_cuenta_menor_10000</t>
   </si>
   <si>
     <t>Autocontrol</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.083213880804769E-05</v>
+        <v>0.001605848924445048</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -581,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0001347687213209867</v>
+        <v>0.004711506262199534</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -589,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0002962294173428018</v>
+        <v>0.01934710473142064</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -597,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.01383896123496032</v>
+        <v>0.02216847526881016</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -605,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01551738631057758</v>
+        <v>0.03018028047682051</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -613,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.03701730526461286</v>
+        <v>0.07298479349918974</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -621,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.04381771906573631</v>
+        <v>0.07789068754406957</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -629,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.04703802486690616</v>
+        <v>0.081554604280722</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -637,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.07007100037917109</v>
+        <v>0.08617777481801862</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -645,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.1242566446757313</v>
+        <v>0.1442693277703861</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -653,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.1274562100700184</v>
+        <v>0.1590988298130095</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -661,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.1396746657822505</v>
+        <v>0.1800382283734505</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -669,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.1567383804006125</v>
+        <v>0.2274622977369843</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -677,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.2368111308042447</v>
+        <v>0.2533164267524219</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -685,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.2406147989864597</v>
+        <v>0.2789606817627701</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -693,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.2474350110881774</v>
+        <v>0.28115731198046</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -701,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.2576166620240927</v>
+        <v>0.2873076261995031</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -709,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.2676870321208141</v>
+        <v>0.2899897612027228</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -717,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.2840449224647775</v>
+        <v>0.2957254919241858</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -725,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.2895631058993288</v>
+        <v>0.3277555071646511</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -733,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.3076532353819939</v>
+        <v>0.3501328452074277</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -741,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.3415565676874406</v>
+        <v>0.3718499410270404</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -749,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.3749645988378087</v>
+        <v>0.4299762086363895</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -757,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.3769621280937531</v>
+        <v>0.4508363684770703</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -765,7 +768,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.3823846489584571</v>
+        <v>0.4608655426799366</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -773,7 +776,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.3841000393003814</v>
+        <v>0.4812888631903563</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -781,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.3930314235663733</v>
+        <v>0.5070298101922291</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -789,7 +792,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.4304115755208903</v>
+        <v>0.5173825740752874</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -797,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.4513905766752374</v>
+        <v>0.5387912230331792</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -805,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.462632391314716</v>
+        <v>0.5941406307816094</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -813,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.5120451707201579</v>
+        <v>0.6475466241425398</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -821,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.5285594233842003</v>
+        <v>0.6902559761997875</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -829,7 +832,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.5492688243561961</v>
+        <v>0.7446463357852486</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -837,7 +840,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.5725823631860244</v>
+        <v>0.8126384563848137</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -845,7 +848,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.7946527294403047</v>
+        <v>0.8411390913389735</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -853,7 +856,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.8548212149305755</v>
+        <v>0.8949296535492179</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -861,7 +864,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.8593677056587954</v>
+        <v>1.056334745393837</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -869,7 +872,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.006676557278639</v>
+        <v>1.097577074609273</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -877,7 +880,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1.189588990614114</v>
+        <v>1.153718075118197</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -885,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.229268608450473</v>
+        <v>1.205167140953719</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -893,7 +896,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.249451803360413</v>
+        <v>1.234849162190932</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -901,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1.293177174497148</v>
+        <v>1.330416100876855</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -909,7 +912,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1.307691425471384</v>
+        <v>1.350106208253142</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -917,7 +920,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1.318841444121596</v>
+        <v>1.351957460619814</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -925,7 +928,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.339585337876541</v>
+        <v>1.477532271922191</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -933,7 +936,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1.442951316617737</v>
+        <v>1.711895765275476</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -941,7 +944,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1.498521453445781</v>
+        <v>1.783072047971268</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -949,7 +952,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1.519992375591814</v>
+        <v>1.835075775143997</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -957,7 +960,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1.948859581200959</v>
+        <v>2.356885065004543</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -965,7 +968,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2.213978605936699</v>
+        <v>2.527575278056104</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -973,7 +976,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2.31198902803634</v>
+        <v>2.664980439959795</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -981,7 +984,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2.576701600884533</v>
+        <v>2.694971744170434</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -989,7 +992,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.150286251163211</v>
+        <v>3.087041998877095</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -997,7 +1000,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.27366551565262</v>
+        <v>3.287418431645247</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1005,7 +1008,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>4.353904897281511</v>
+        <v>3.536894424952759</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1013,7 +1016,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>5.352673310614893</v>
+        <v>3.859907111343128</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1021,7 +1024,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>6.198080876682436</v>
+        <v>7.12627604378847</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1029,7 +1032,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>19.18096369525611</v>
+        <v>8.02379024852527</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1037,7 +1040,15 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>23.86712474123584</v>
+        <v>13.91866070484097</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>17.87274396932011</v>
       </c>
     </row>
   </sheetData>

--- a/MINERIA DE DATOS - BANCOLOMBIA/pesos.xlsx
+++ b/MINERIA DE DATOS - BANCOLOMBIA/pesos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>variable</t>
   </si>
@@ -22,181 +22,184 @@
     <t>peso</t>
   </si>
   <si>
+    <t>cuentas_otros_x_valor_prestamo</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_saldo_cuenta_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_impulsividad_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>impulsividad_x_confianza_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_saldo_cuenta_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_impulsividad_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_valor_prestamo_entre_tiempo_empleo</t>
+  </si>
+  <si>
     <t>saldo_cuenta_x_tiempo_empleo_entre_cuentas_otros</t>
   </si>
   <si>
-    <t>saldo_cuenta_x_impulsividad_entre_cuentas_otros</t>
-  </si>
-  <si>
     <t>cuentas_otros_x_impulsividad</t>
   </si>
   <si>
-    <t>impulsividad_x_confianza_entre_cuentas_otros</t>
+    <t>cuentas_otros_x_autocontrol</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_autocontrol</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_autocontrol_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_confianza_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_autocontrol</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_autocontrol_entre_tiempo_empleo</t>
   </si>
   <si>
     <t>cuentas_otros_x_saldo_cuenta</t>
   </si>
   <si>
-    <t>cuentas_otros_x_saldo_cuenta_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_autocontrol</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_autocontrol</t>
-  </si>
-  <si>
-    <t>tiempo_empleo_x_autocontrol_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_saldo_cuenta_entre_cuentas_otros</t>
-  </si>
-  <si>
     <t>autocontrol_x_confianza_entre_tiempo_empleo</t>
   </si>
   <si>
-    <t>cuentas_otros_x_confianza_entre_tiempo_empleo</t>
+    <t>Tiempo_empleo</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_autocontrol</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_impulsividad</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_autocontrol_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_confianza</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_autocontrol_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_confianza_entre_cuentas_otros</t>
   </si>
   <si>
     <t>tiempo_empleo_x_impulsividad_entre_cuentas_otros</t>
   </si>
   <si>
-    <t>cuentas_otros_x_impulsividad_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_confianza</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_autocontrol_entre_cuentas_otros</t>
+    <t>valor_prestamo_x_saldo_cuenta</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_confianza_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>Valor_prestamo</t>
+  </si>
+  <si>
+    <t>autocontrol_x_impulsividad_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_impulsividad</t>
+  </si>
+  <si>
+    <t>Saldo_cuenta</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_confianza</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_impulsividad_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>tiempo_empleo_x_confianza</t>
+  </si>
+  <si>
+    <t>Cuentas_otros</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_impulsividad</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_impulsividad_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>cuentas_otros_x_confianza</t>
   </si>
   <si>
     <t>valor_prestamo_x_tiempo_empleo</t>
   </si>
   <si>
-    <t>cuentas_otros_x_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>tiempo_empleo_x_autocontrol</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_valor_prestamo_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>tiempo_empleo_x_impulsividad</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_impulsividad_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_autocontrol</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_confianza_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_valor_prestamo</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_autocontrol_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>tiempo_empleo_x_confianza_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>Tiempo_empleo</t>
-  </si>
-  <si>
-    <t>autocontrol_x_impulsividad_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_impulsividad_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_autocontrol_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>Empleado</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_saldo_cuenta</t>
-  </si>
-  <si>
-    <t>Saldo_cuenta</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_impulsividad</t>
+    <t>autocontrol_x_impulsividad</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_autocontrol_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>saldo_cuenta_x_confianza_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>impulsividad_x_confianza</t>
+  </si>
+  <si>
+    <t>valor_prestamo_x_saldo_cuenta_entre_tiempo_empleo</t>
+  </si>
+  <si>
+    <t>autocontrol_x_confianza_entre_cuentas_otros</t>
   </si>
   <si>
     <t>valor_prestamo_x_autocontrol_entre_tiempo_empleo</t>
   </si>
   <si>
-    <t>tiempo_empleo_x_confianza</t>
-  </si>
-  <si>
-    <t>cuentas_otros_x_confianza</t>
-  </si>
-  <si>
-    <t>autocontrol_x_impulsividad</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_autocontrol_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_saldo_cuenta_entre_tiempo_empleo</t>
-  </si>
-  <si>
-    <t>Cuentas_otros</t>
-  </si>
-  <si>
-    <t>Valor_prestamo</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_impulsividad</t>
-  </si>
-  <si>
-    <t>saldo_cuenta_x_confianza_entre_cuentas_otros</t>
-  </si>
-  <si>
     <t>impulsividad_x_confianza_entre_tiempo_empleo</t>
   </si>
   <si>
-    <t>valor_prestamo_x_confianza</t>
-  </si>
-  <si>
-    <t>autocontrol_x_confianza_entre_cuentas_otros</t>
+    <t>valor_prestamo_x_impulsividad_entre_cuentas_otros</t>
   </si>
   <si>
     <t>autocontrol_x_impulsividad_entre_cuentas_otros</t>
   </si>
   <si>
+    <t>valor_prestamo_x_confianza_entre_cuentas_otros</t>
+  </si>
+  <si>
+    <t>autocontrol_x_confianza</t>
+  </si>
+  <si>
     <t>valor_prestamo_x_tiempo_empleo_entre_cuentas_otros</t>
   </si>
   <si>
-    <t>valor_prestamo_x_impulsividad_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>impulsividad_x_confianza</t>
-  </si>
-  <si>
-    <t>valor_prestamo_x_confianza_entre_cuentas_otros</t>
-  </si>
-  <si>
-    <t>autocontrol_x_confianza</t>
+    <t>Impulsividad</t>
   </si>
   <si>
     <t>saldo_cuenta_x_confianza_entre_tiempo_empleo</t>
   </si>
   <si>
-    <t>Impulsividad</t>
+    <t>Saldo_cuenta_menor_10000</t>
+  </si>
+  <si>
+    <t>Confianza</t>
   </si>
   <si>
     <t>Autocontrol</t>
-  </si>
-  <si>
-    <t>Confianza</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.083213880804769E-05</v>
+        <v>0.001572239341587283</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -581,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0001347687213209867</v>
+        <v>0.004448281964966064</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -589,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0002962294173428018</v>
+        <v>0.007699760915038394</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -597,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.01383896123496032</v>
+        <v>0.0103828327304677</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -605,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01551738631057758</v>
+        <v>0.01748052547225275</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -613,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.03701730526461286</v>
+        <v>0.01885775773416986</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -621,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.04381771906573631</v>
+        <v>0.02549575311466432</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -629,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.04703802486690616</v>
+        <v>0.04063087676440292</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -637,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.07007100037917109</v>
+        <v>0.0501009270918241</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -645,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.1242566446757313</v>
+        <v>0.05706593909699109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -653,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.1274562100700184</v>
+        <v>0.08410644065964575</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -661,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.1396746657822505</v>
+        <v>0.1016433196015119</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -669,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.1567383804006125</v>
+        <v>0.1063534015507863</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -677,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.2368111308042447</v>
+        <v>0.1848915997169446</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -685,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.2406147989864597</v>
+        <v>0.1973837658692532</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -693,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.2474350110881774</v>
+        <v>0.2065486712454834</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -701,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.2576166620240927</v>
+        <v>0.2393058206291183</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -709,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.2676870321208141</v>
+        <v>0.2725707526827318</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -717,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.2840449224647775</v>
+        <v>0.2865638946800179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -725,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.2895631058993288</v>
+        <v>0.3085998543802042</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -733,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.3076532353819939</v>
+        <v>0.3853368546686672</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -741,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.3415565676874406</v>
+        <v>0.4151531278889498</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -749,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.3749645988378087</v>
+        <v>0.4158926780752056</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -757,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.3769621280937531</v>
+        <v>0.4355542377024111</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -765,7 +768,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.3823846489584571</v>
+        <v>0.4418337583276767</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -773,7 +776,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.3841000393003814</v>
+        <v>0.5065329599940416</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -781,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.3930314235663733</v>
+        <v>0.5940510477180686</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -789,7 +792,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.4304115755208903</v>
+        <v>0.5953140993240593</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -797,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.4513905766752374</v>
+        <v>0.6460815163808863</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -805,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.462632391314716</v>
+        <v>0.7360037408487563</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -813,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.5120451707201579</v>
+        <v>0.7757036132946055</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -821,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.5285594233842003</v>
+        <v>0.8208371823947206</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -829,7 +832,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.5492688243561961</v>
+        <v>0.9268776965162934</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -837,7 +840,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.5725823631860244</v>
+        <v>0.931773457443379</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -845,7 +848,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.7946527294403047</v>
+        <v>0.9345254399289425</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -853,7 +856,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.8548212149305755</v>
+        <v>0.9584675829067782</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -861,7 +864,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.8593677056587954</v>
+        <v>1.092649599597539</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -869,7 +872,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.006676557278639</v>
+        <v>1.109775561622267</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -877,7 +880,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1.189588990614114</v>
+        <v>1.118310396321854</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -885,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.229268608450473</v>
+        <v>1.141181243770226</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -893,7 +896,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.249451803360413</v>
+        <v>1.17531617998339</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -901,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1.293177174497148</v>
+        <v>1.205470269658499</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -909,7 +912,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1.307691425471384</v>
+        <v>1.240400071011216</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -917,7 +920,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1.318841444121596</v>
+        <v>1.363233881245294</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -925,7 +928,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.339585337876541</v>
+        <v>1.490398647466864</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -933,7 +936,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1.442951316617737</v>
+        <v>2.051219254372393</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -941,7 +944,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1.498521453445781</v>
+        <v>2.069469459168496</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -949,7 +952,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1.519992375591814</v>
+        <v>2.112100162957775</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -957,7 +960,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1.948859581200959</v>
+        <v>2.19088395716848</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -965,7 +968,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2.213978605936699</v>
+        <v>2.327887566423337</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -973,7 +976,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2.31198902803634</v>
+        <v>2.41075862215152</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -981,7 +984,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2.576701600884533</v>
+        <v>2.907118882611806</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -989,7 +992,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.150286251163211</v>
+        <v>3.193891220951827</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -997,7 +1000,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.27366551565262</v>
+        <v>3.462542849496753</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1005,7 +1008,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>4.353904897281511</v>
+        <v>3.824398264434973</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1013,7 +1016,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>5.352673310614893</v>
+        <v>4.098249909140727</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1021,7 +1024,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>6.198080876682436</v>
+        <v>7.388846166877953</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1029,7 +1032,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>19.18096369525611</v>
+        <v>8.366390200178312</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1037,7 +1040,15 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>23.86712474123584</v>
+        <v>14.86661374552213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>15.05125247921091</v>
       </c>
     </row>
   </sheetData>
